--- a/data/trans_orig/P21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F63719F-7984-4D22-B617-6BA8CC9FECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{344BBE6C-C4B4-4FB4-B26D-0C412C685342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CE3D86E-A253-4129-AD11-C4026C8BDBB4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15D38871-2AD1-4C52-A2C9-FBA80827A6AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="661">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1939 +77,1951 @@
     <t>80,1%</t>
   </si>
   <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>0,56%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>21,24%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014DB38-A286-477E-B462-36C1D684AF9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E1CCE3-9940-4413-A6C6-103DEC2CE457}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2838,7 +2850,7 @@
         <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2865,13 @@
         <v>109219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>171</v>
@@ -2868,13 +2880,13 @@
         <v>183291</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>277</v>
@@ -2883,13 +2895,13 @@
         <v>292509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2957,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2957,13 +2969,13 @@
         <v>548168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>527</v>
@@ -2972,13 +2984,13 @@
         <v>552617</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>1054</v>
@@ -2987,13 +2999,13 @@
         <v>1100784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3020,13 @@
         <v>1003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3023,13 +3035,13 @@
         <v>8270</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3038,7 +3050,7 @@
         <v>9273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>82</v>
@@ -3214,13 +3226,13 @@
         <v>3054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3229,13 +3241,13 @@
         <v>1947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3244,13 +3256,13 @@
         <v>5001</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3277,13 @@
         <v>76998</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>101</v>
@@ -3280,13 +3292,13 @@
         <v>101971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>172</v>
@@ -3295,13 +3307,13 @@
         <v>178969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3369,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3372,10 +3384,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>312</v>
@@ -3384,13 +3396,13 @@
         <v>317554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>641</v>
@@ -3399,13 +3411,13 @@
         <v>641159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3432,13 @@
         <v>1694</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3435,10 +3447,10 @@
         <v>3169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>132</v>
@@ -3453,10 +3465,10 @@
         <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3483,13 @@
         <v>61411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -3486,13 +3498,13 @@
         <v>83262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -3501,13 +3513,13 @@
         <v>144673</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3575,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3575,13 +3587,13 @@
         <v>384558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>466</v>
@@ -3590,10 +3602,10 @@
         <v>477063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>150</v>
@@ -3626,13 +3638,13 @@
         <v>7889</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -3641,13 +3653,13 @@
         <v>17807</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3656,13 +3668,13 @@
         <v>25696</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3689,13 @@
         <v>110019</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>178</v>
@@ -3692,13 +3704,13 @@
         <v>181972</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>293</v>
@@ -3707,13 +3719,13 @@
         <v>291991</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>2715312</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>2493</v>
@@ -3796,13 +3808,13 @@
         <v>2554248</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>5157</v>
@@ -3811,13 +3823,13 @@
         <v>5269561</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3844,13 @@
         <v>19609</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -3847,13 +3859,13 @@
         <v>35452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -3862,13 +3874,13 @@
         <v>55062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3895,13 @@
         <v>540737</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>769</v>
@@ -3898,13 +3910,13 @@
         <v>788556</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>1299</v>
@@ -3913,13 +3925,13 @@
         <v>1329293</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3987,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54A899C-591A-4CA3-8877-AD64B3A68E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C098FE30-E8CA-4DFC-A222-C480DA211C7A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4014,7 +4026,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4121,13 +4133,13 @@
         <v>343699</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>295</v>
@@ -4136,13 +4148,13 @@
         <v>301117</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>631</v>
@@ -4151,13 +4163,13 @@
         <v>644816</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4184,13 @@
         <v>1824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4187,13 +4199,13 @@
         <v>992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4202,13 +4214,13 @@
         <v>2816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4235,13 @@
         <v>107669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>125</v>
@@ -4238,13 +4250,13 @@
         <v>128121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>232</v>
@@ -4253,13 +4265,13 @@
         <v>235790</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4339,13 @@
         <v>524021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>376</v>
@@ -4342,13 +4354,13 @@
         <v>396827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -4357,13 +4369,13 @@
         <v>920848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4390,13 @@
         <v>4754</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4393,13 +4405,13 @@
         <v>3861</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4408,13 +4420,13 @@
         <v>8615</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4441,13 @@
         <v>158312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
@@ -4444,13 +4456,13 @@
         <v>208600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -4459,13 +4471,13 @@
         <v>366912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4533,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4533,13 +4545,13 @@
         <v>555419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H12" s="7">
         <v>508</v>
@@ -4548,13 +4560,13 @@
         <v>540169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>1043</v>
@@ -4563,13 +4575,13 @@
         <v>1095587</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4596,13 @@
         <v>6335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4605,7 +4617,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4614,13 +4626,13 @@
         <v>8482</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4647,13 @@
         <v>119382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -4650,13 +4662,13 @@
         <v>167356</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -4665,13 +4677,13 @@
         <v>286738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4751,13 @@
         <v>515744</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>426</v>
@@ -4754,13 +4766,13 @@
         <v>485387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>882</v>
@@ -4769,13 +4781,13 @@
         <v>1001131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4802,13 @@
         <v>2101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4805,13 +4817,13 @@
         <v>3214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4820,13 +4832,13 @@
         <v>5315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4853,13 @@
         <v>96771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -4856,13 +4868,13 @@
         <v>126639</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -4871,13 +4883,13 @@
         <v>223410</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4945,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4945,13 +4957,13 @@
         <v>353839</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -4960,13 +4972,13 @@
         <v>343672</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>629</v>
@@ -4975,13 +4987,13 @@
         <v>697511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5008,13 @@
         <v>5418</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5011,13 +5023,13 @@
         <v>7314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -5026,13 +5038,13 @@
         <v>12731</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5059,13 @@
         <v>70173</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -5062,13 +5074,13 @@
         <v>96814</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -5077,13 +5089,13 @@
         <v>166987</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,7 +5151,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5151,13 +5163,13 @@
         <v>424818</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>474</v>
@@ -5166,13 +5178,13 @@
         <v>508560</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>860</v>
@@ -5181,13 +5193,13 @@
         <v>933378</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5214,13 @@
         <v>14633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5217,13 +5229,13 @@
         <v>35763</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -5232,13 +5244,13 @@
         <v>50396</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5265,13 @@
         <v>119186</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -5363,7 +5375,7 @@
         <v>342</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7">
         <v>2387</v>
@@ -5372,28 +5384,28 @@
         <v>2575731</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M28" s="7">
         <v>4930</v>
       </c>
       <c r="N28" s="7">
-        <v>5293272</v>
+        <v>5293271</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5420,13 @@
         <v>35064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -5423,13 +5435,13 @@
         <v>53290</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M29" s="7">
         <v>84</v>
@@ -5438,13 +5450,13 @@
         <v>88354</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5471,13 @@
         <v>671493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H30" s="7">
         <v>859</v>
@@ -5474,28 +5486,28 @@
         <v>926183</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M30" s="7">
         <v>1487</v>
       </c>
       <c r="N30" s="7">
-        <v>1597676</v>
+        <v>1597675</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5549,7 @@
         <v>6501</v>
       </c>
       <c r="N31" s="7">
-        <v>6979302</v>
+        <v>6979301</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -5551,7 +5563,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5573,7 +5585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545F86D6-549B-4638-84B2-D64D166C4722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A583CAE-458E-4CF3-86B9-C9C444DE121D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5590,7 +5602,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5697,13 +5709,13 @@
         <v>325908</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>308</v>
@@ -5712,13 +5724,13 @@
         <v>301472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -5727,13 +5739,13 @@
         <v>627380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5760,13 @@
         <v>7386</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5763,13 +5775,13 @@
         <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5778,13 +5790,13 @@
         <v>11159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5811,13 @@
         <v>86170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -5814,13 +5826,13 @@
         <v>90509</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>171</v>
@@ -5829,13 +5841,13 @@
         <v>176679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5915,13 @@
         <v>490707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5918,13 +5930,13 @@
         <v>422139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5933,13 +5945,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5966,13 @@
         <v>3329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5969,13 +5981,13 @@
         <v>2797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5984,13 +5996,13 @@
         <v>6125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6017,13 @@
         <v>93248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -6020,13 +6032,13 @@
         <v>137723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>226</v>
@@ -6035,13 +6047,13 @@
         <v>230971</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6109,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6109,13 +6121,13 @@
         <v>559085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -6124,13 +6136,13 @@
         <v>518326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>1064</v>
@@ -6139,13 +6151,13 @@
         <v>1077411</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6172,13 @@
         <v>5779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>418</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6175,13 +6187,13 @@
         <v>1803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>28</v>
+        <v>420</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6190,13 +6202,13 @@
         <v>7582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6223,13 @@
         <v>101677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -6226,13 +6238,13 @@
         <v>140389</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -6241,13 +6253,13 @@
         <v>242066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6327,13 @@
         <v>552745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
@@ -6330,13 +6342,13 @@
         <v>532381</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M16" s="7">
         <v>993</v>
@@ -6345,13 +6357,13 @@
         <v>1085126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6378,13 @@
         <v>7342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6381,13 +6393,13 @@
         <v>12520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6396,13 +6408,13 @@
         <v>19862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6429,13 @@
         <v>83928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -6432,13 +6444,13 @@
         <v>104177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M18" s="7">
         <v>170</v>
@@ -6447,13 +6459,13 @@
         <v>188104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,7 +6521,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6521,13 +6533,13 @@
         <v>402701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -6536,13 +6548,13 @@
         <v>405030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M20" s="7">
         <v>710</v>
@@ -6551,13 +6563,13 @@
         <v>807730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6584,13 @@
         <v>8090</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6587,13 +6599,13 @@
         <v>6706</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>458</v>
+        <v>231</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6602,13 +6614,13 @@
         <v>14796</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6635,13 @@
         <v>65200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -6638,13 +6650,13 @@
         <v>83294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>466</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -6653,13 +6665,13 @@
         <v>148494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,7 +6727,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6727,13 +6739,13 @@
         <v>487949</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>472</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H24" s="7">
         <v>505</v>
@@ -6742,13 +6754,13 @@
         <v>597255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>1024</v>
@@ -6757,13 +6769,13 @@
         <v>1085204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6790,13 @@
         <v>14282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6793,13 +6805,13 @@
         <v>32956</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -6808,13 +6820,13 @@
         <v>47238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6841,13 @@
         <v>88159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -6844,13 +6856,13 @@
         <v>144832</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>213</v>
@@ -6859,13 +6871,13 @@
         <v>232992</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6945,13 @@
         <v>2819094</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>249</v>
+        <v>505</v>
       </c>
       <c r="H28" s="7">
         <v>2625</v>
@@ -6948,13 +6960,13 @@
         <v>2776603</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>498</v>
+        <v>290</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M28" s="7">
         <v>5316</v>
@@ -6963,13 +6975,13 @@
         <v>5595699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6996,13 @@
         <v>46208</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>511</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -6999,13 +7011,13 @@
         <v>60556</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>513</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M29" s="7">
         <v>98</v>
@@ -7014,13 +7026,13 @@
         <v>106764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7047,13 @@
         <v>518382</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H30" s="7">
         <v>655</v>
@@ -7050,13 +7062,13 @@
         <v>700924</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>513</v>
+        <v>37</v>
       </c>
       <c r="M30" s="7">
         <v>1140</v>
@@ -7065,13 +7077,13 @@
         <v>1219306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,7 +7139,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -7149,7 +7161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C68378-B1D8-43F9-B975-B8A56883AE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0325E4CB-9936-4FC9-82FF-F4CAE5A01F6E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7166,7 +7178,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7273,13 +7285,13 @@
         <v>311763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H4" s="7">
         <v>153</v>
@@ -7288,13 +7300,13 @@
         <v>260253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M4" s="7">
         <v>298</v>
@@ -7303,13 +7315,13 @@
         <v>572015</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,10 +7339,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7339,13 +7351,13 @@
         <v>1373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>528</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>534</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7354,13 +7366,13 @@
         <v>1373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>529</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7387,13 @@
         <v>65916</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -7390,13 +7402,13 @@
         <v>90630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -7405,13 +7417,13 @@
         <v>156546</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7491,13 @@
         <v>341427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -7494,13 +7506,13 @@
         <v>368629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M8" s="7">
         <v>581</v>
@@ -7509,13 +7521,13 @@
         <v>710055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>547</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,7 +7548,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>104</v>
+        <v>552</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7548,10 +7560,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7560,13 +7572,13 @@
         <v>1292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7593,13 @@
         <v>85678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -7596,13 +7608,13 @@
         <v>129948</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -7611,13 +7623,13 @@
         <v>215626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,7 +7685,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7685,13 +7697,13 @@
         <v>436964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H12" s="7">
         <v>637</v>
@@ -7700,13 +7712,13 @@
         <v>443277</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M12" s="7">
         <v>1069</v>
@@ -7715,13 +7727,13 @@
         <v>880241</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,10 +7751,10 @@
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7754,10 +7766,10 @@
         <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7769,10 +7781,10 @@
         <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7799,13 @@
         <v>120288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>576</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -7802,13 +7814,13 @@
         <v>138469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>577</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>578</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -7817,13 +7829,13 @@
         <v>258757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7903,13 @@
         <v>559236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="H16" s="7">
         <v>868</v>
@@ -7906,28 +7918,28 @@
         <v>573564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M16" s="7">
         <v>1370</v>
       </c>
       <c r="N16" s="7">
-        <v>1132800</v>
+        <v>1132801</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7954,13 @@
         <v>6416</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>585</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7957,13 +7969,13 @@
         <v>2948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>584</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -7975,10 +7987,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>592</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8005,13 @@
         <v>156399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>589</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -8008,28 +8020,28 @@
         <v>170060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
       </c>
       <c r="N18" s="7">
-        <v>326458</v>
+        <v>326459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>599</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,7 +8083,7 @@
         <v>1804</v>
       </c>
       <c r="N19" s="7">
-        <v>1468622</v>
+        <v>1468623</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8085,7 +8097,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8097,13 +8109,13 @@
         <v>478775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="H20" s="7">
         <v>768</v>
@@ -8112,13 +8124,13 @@
         <v>452413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>1297</v>
@@ -8127,13 +8139,13 @@
         <v>931187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>603</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8160,13 @@
         <v>3953</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -8163,13 +8175,13 @@
         <v>4750</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>605</v>
+        <v>373</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>606</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -8178,13 +8190,13 @@
         <v>8703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>555</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>528</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8211,13 @@
         <v>117429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H22" s="7">
         <v>225</v>
@@ -8214,13 +8226,13 @@
         <v>137139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -8229,13 +8241,13 @@
         <v>254568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,7 +8303,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8300,16 +8312,16 @@
         <v>831</v>
       </c>
       <c r="D24" s="7">
-        <v>569057</v>
+        <v>569058</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>411</v>
+        <v>618</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="H24" s="7">
         <v>1277</v>
@@ -8318,13 +8330,13 @@
         <v>678324</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="M24" s="7">
         <v>2108</v>
@@ -8333,13 +8345,13 @@
         <v>1247382</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,13 +8366,13 @@
         <v>8958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>627</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -8369,13 +8381,13 @@
         <v>22285</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -8384,13 +8396,13 @@
         <v>31243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>23</v>
+        <v>511</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,13 +8417,13 @@
         <v>119739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H26" s="7">
         <v>393</v>
@@ -8420,13 +8432,13 @@
         <v>324163</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>634</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -8435,13 +8447,13 @@
         <v>443902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8453,7 +8465,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8509,13 +8521,13 @@
         <v>2697221</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>643</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H28" s="7">
         <v>4043</v>
@@ -8524,13 +8536,13 @@
         <v>2776461</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="M28" s="7">
         <v>6723</v>
@@ -8539,13 +8551,13 @@
         <v>5473682</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,13 +8572,13 @@
         <v>20619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>647</v>
+        <v>78</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -8575,13 +8587,13 @@
         <v>31355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -8590,13 +8602,13 @@
         <v>51974</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>651</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>652</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8623,13 @@
         <v>665449</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="H30" s="7">
         <v>1264</v>
@@ -8626,13 +8638,13 @@
         <v>990409</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="M30" s="7">
         <v>1934</v>
@@ -8641,13 +8653,13 @@
         <v>1655858</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8703,7 +8715,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{344BBE6C-C4B4-4FB4-B26D-0C412C685342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B3B229-8277-4F5B-8762-16E317E15B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15D38871-2AD1-4C52-A2C9-FBA80827A6AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{696EB884-0BF5-470E-B8CF-3193AC4BD2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="652">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1884 +77,1866 @@
     <t>80,1%</t>
   </si>
   <si>
-    <t>76,5%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
     <t>54,84%</t>
   </si>
   <si>
@@ -1985,19 +1967,10 @@
     <t>75,66%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
     <t>72,41%</t>
   </si>
   <si>
     <t>77,89%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
   </si>
   <si>
     <t>19,67%</t>
@@ -2433,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E1CCE3-9940-4413-A6C6-103DEC2CE457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975FE30-4280-4B05-9AB8-2D2BF70D63E0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3259,10 +3232,10 @@
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3250,13 @@
         <v>76998</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>101</v>
@@ -3292,13 +3265,13 @@
         <v>101971</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>172</v>
@@ -3307,13 +3280,13 @@
         <v>178969</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,7 +3342,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3381,7 +3354,7 @@
         <v>323605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>121</v>
@@ -3468,7 +3441,7 @@
         <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3456,13 @@
         <v>61411</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -3498,13 +3471,13 @@
         <v>83262</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>142</v>
@@ -3513,13 +3486,13 @@
         <v>144673</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3548,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3587,13 +3560,13 @@
         <v>384558</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>466</v>
@@ -3602,10 +3575,10 @@
         <v>477063</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>150</v>
@@ -3638,13 +3611,13 @@
         <v>7889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -3653,13 +3626,13 @@
         <v>17807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3668,13 +3641,13 @@
         <v>25696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3662,13 @@
         <v>110019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>178</v>
@@ -3704,13 +3677,13 @@
         <v>181972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>293</v>
@@ -3719,13 +3692,13 @@
         <v>291991</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3766,13 @@
         <v>2715312</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>2493</v>
@@ -3808,13 +3781,13 @@
         <v>2554248</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>5157</v>
@@ -3823,13 +3796,13 @@
         <v>5269561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3817,13 @@
         <v>19609</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -3859,13 +3832,13 @@
         <v>35452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -3874,13 +3847,13 @@
         <v>55062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3868,13 @@
         <v>540737</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>769</v>
@@ -3910,13 +3883,13 @@
         <v>788556</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>1299</v>
@@ -3925,13 +3898,13 @@
         <v>1329293</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3960,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +3982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C098FE30-E8CA-4DFC-A222-C480DA211C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19001D5-9B16-4E31-B5AD-7AFFED89EE9C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4026,7 +3999,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,13 +4106,13 @@
         <v>343699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>295</v>
@@ -4148,13 +4121,13 @@
         <v>301117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>631</v>
@@ -4163,13 +4136,13 @@
         <v>644816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4157,13 @@
         <v>1824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4199,13 +4172,13 @@
         <v>992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4214,13 +4187,13 @@
         <v>2816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4208,13 @@
         <v>107669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>125</v>
@@ -4250,13 +4223,13 @@
         <v>128121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>232</v>
@@ -4265,13 +4238,13 @@
         <v>235790</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4312,13 @@
         <v>524021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>376</v>
@@ -4354,13 +4327,13 @@
         <v>396827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -4369,13 +4342,13 @@
         <v>920848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4363,13 @@
         <v>4754</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4405,13 +4378,13 @@
         <v>3861</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4420,13 +4393,13 @@
         <v>8615</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4414,13 @@
         <v>158312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
@@ -4456,13 +4429,13 @@
         <v>208600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -4471,13 +4444,13 @@
         <v>366912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4518,13 @@
         <v>555419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>508</v>
@@ -4560,13 +4533,13 @@
         <v>540169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>1043</v>
@@ -4575,13 +4548,13 @@
         <v>1095587</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4569,13 @@
         <v>6335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4617,7 +4590,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4626,13 +4599,13 @@
         <v>8482</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4620,13 @@
         <v>119382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -4662,13 +4635,13 @@
         <v>167356</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -4677,13 +4650,13 @@
         <v>286738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4724,13 @@
         <v>515744</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>426</v>
@@ -4766,13 +4739,13 @@
         <v>485387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>882</v>
@@ -4781,13 +4754,13 @@
         <v>1001131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4775,13 @@
         <v>2101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4817,13 +4790,13 @@
         <v>3214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4832,13 +4805,13 @@
         <v>5315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4826,13 @@
         <v>96771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -4868,13 +4841,13 @@
         <v>126639</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -4945,7 +4918,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4963,7 +4936,7 @@
         <v>290</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -4972,13 +4945,13 @@
         <v>343672</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>629</v>
@@ -4987,7 +4960,7 @@
         <v>697511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>295</v>
@@ -5008,13 +4981,13 @@
         <v>5418</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5023,13 +4996,13 @@
         <v>7314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -5038,13 +5011,13 @@
         <v>12731</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5032,13 @@
         <v>70173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -5074,13 +5047,13 @@
         <v>96814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -5089,13 +5062,13 @@
         <v>166987</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,7 +5124,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5163,13 +5136,13 @@
         <v>424818</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>474</v>
@@ -5178,13 +5151,13 @@
         <v>508560</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>860</v>
@@ -5193,13 +5166,13 @@
         <v>933378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,10 +5187,10 @@
         <v>14633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>325</v>
@@ -5396,10 +5369,10 @@
         <v>4930</v>
       </c>
       <c r="N28" s="7">
-        <v>5293271</v>
+        <v>5293272</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>347</v>
@@ -5423,10 +5396,10 @@
         <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -5435,10 +5408,10 @@
         <v>53290</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>352</v>
@@ -5450,13 +5423,13 @@
         <v>88354</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>353</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,19 +5444,19 @@
         <v>671493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>355</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>859</v>
       </c>
       <c r="I30" s="7">
-        <v>926183</v>
+        <v>926182</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>356</v>
@@ -5498,7 +5471,7 @@
         <v>1487</v>
       </c>
       <c r="N30" s="7">
-        <v>1597675</v>
+        <v>1597676</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>359</v>
@@ -5534,7 +5507,7 @@
         <v>3295</v>
       </c>
       <c r="I31" s="7">
-        <v>3555204</v>
+        <v>3555203</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -5549,7 +5522,7 @@
         <v>6501</v>
       </c>
       <c r="N31" s="7">
-        <v>6979301</v>
+        <v>6979302</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -5563,7 +5536,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5585,7 +5558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A583CAE-458E-4CF3-86B9-C9C444DE121D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFB1B0F-FAB2-4DC5-AC9E-E0F8EB6AB08D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5766,7 +5739,7 @@
         <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5775,13 +5748,13 @@
         <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5790,13 +5763,13 @@
         <v>11159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5784,13 @@
         <v>86170</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -5826,13 +5799,13 @@
         <v>90509</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>171</v>
@@ -5841,13 +5814,13 @@
         <v>176679</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5888,13 @@
         <v>490707</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5930,13 +5903,13 @@
         <v>422139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5945,13 +5918,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>393</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5939,13 @@
         <v>3329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>397</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5981,13 +5954,13 @@
         <v>2797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>399</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5996,13 +5969,13 @@
         <v>6125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +5990,13 @@
         <v>93248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -6032,13 +6005,13 @@
         <v>137723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>226</v>
@@ -6047,13 +6020,13 @@
         <v>230971</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6094,13 @@
         <v>559085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -6136,13 +6109,13 @@
         <v>518326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M12" s="7">
         <v>1064</v>
@@ -6151,13 +6124,13 @@
         <v>1077411</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6145,13 @@
         <v>5779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6187,13 +6160,13 @@
         <v>1803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>420</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6202,13 +6175,13 @@
         <v>7582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6196,13 @@
         <v>101677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -6238,13 +6211,13 @@
         <v>140389</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -6253,13 +6226,13 @@
         <v>242066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6300,13 @@
         <v>552745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
@@ -6342,13 +6315,13 @@
         <v>532381</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M16" s="7">
         <v>993</v>
@@ -6357,13 +6330,13 @@
         <v>1085126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6351,13 @@
         <v>7342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6393,13 +6366,13 @@
         <v>12520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6411,10 +6384,10 @@
         <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6402,13 @@
         <v>83928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -6444,13 +6417,13 @@
         <v>104177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="M18" s="7">
         <v>170</v>
@@ -6459,13 +6432,13 @@
         <v>188104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6494,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6533,13 +6506,13 @@
         <v>402701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -6548,13 +6521,13 @@
         <v>405030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>710</v>
@@ -6563,13 +6536,13 @@
         <v>807730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>462</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6557,13 @@
         <v>8090</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>154</v>
+        <v>454</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6599,13 +6572,13 @@
         <v>6706</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6614,13 +6587,13 @@
         <v>14796</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>467</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6608,13 @@
         <v>65200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -6650,13 +6623,13 @@
         <v>83294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -6665,13 +6638,13 @@
         <v>148494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,7 +6700,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6739,13 +6712,13 @@
         <v>487949</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>505</v>
@@ -6754,13 +6727,13 @@
         <v>597255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="M24" s="7">
         <v>1024</v>
@@ -6769,13 +6742,13 @@
         <v>1085204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6763,13 @@
         <v>14282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6805,13 +6778,13 @@
         <v>32956</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -6820,13 +6793,13 @@
         <v>47238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6814,13 @@
         <v>88159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -6856,13 +6829,13 @@
         <v>144832</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M26" s="7">
         <v>213</v>
@@ -6871,13 +6844,13 @@
         <v>232992</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6918,13 @@
         <v>2819094</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H28" s="7">
         <v>2625</v>
@@ -6960,13 +6933,13 @@
         <v>2776603</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>290</v>
+        <v>498</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M28" s="7">
         <v>5316</v>
@@ -6975,13 +6948,13 @@
         <v>5595699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6969,13 @@
         <v>46208</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>510</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -7011,13 +6984,13 @@
         <v>60556</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>514</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>98</v>
@@ -7029,10 +7002,10 @@
         <v>130</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7020,13 @@
         <v>518382</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="H30" s="7">
         <v>655</v>
@@ -7062,13 +7035,13 @@
         <v>700924</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>520</v>
+        <v>92</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="M30" s="7">
         <v>1140</v>
@@ -7077,13 +7050,13 @@
         <v>1219306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,7 +7112,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7161,7 +7134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0325E4CB-9936-4FC9-82FF-F4CAE5A01F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D760EBC9-4D9E-4112-B8E3-2AEE29E0453C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7178,7 +7151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7285,13 +7258,13 @@
         <v>311763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H4" s="7">
         <v>153</v>
@@ -7300,13 +7273,13 @@
         <v>260253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M4" s="7">
         <v>298</v>
@@ -7315,13 +7288,13 @@
         <v>572015</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,10 +7312,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>526</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7351,13 +7324,13 @@
         <v>1373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>527</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7366,13 +7339,13 @@
         <v>1373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>529</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,13 +7360,13 @@
         <v>65916</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -7402,13 +7375,13 @@
         <v>90630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>539</v>
+        <v>65</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -7417,13 +7390,13 @@
         <v>156546</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7464,13 @@
         <v>341427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -7506,13 +7479,13 @@
         <v>368629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="M8" s="7">
         <v>581</v>
@@ -7521,13 +7494,13 @@
         <v>710055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>371</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7521,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7560,10 +7533,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7572,13 +7545,13 @@
         <v>1292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>555</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7566,13 @@
         <v>85678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -7608,13 +7581,13 @@
         <v>129948</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -7623,13 +7596,13 @@
         <v>215626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>558</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7670,13 @@
         <v>436964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H12" s="7">
         <v>637</v>
@@ -7712,13 +7685,13 @@
         <v>443277</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M12" s="7">
         <v>1069</v>
@@ -7727,13 +7700,13 @@
         <v>880241</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,10 +7724,10 @@
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7766,10 +7739,10 @@
         <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7781,10 +7754,10 @@
         <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7772,13 @@
         <v>120288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -7814,13 +7787,13 @@
         <v>138469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>579</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -7829,13 +7802,13 @@
         <v>258757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7876,13 @@
         <v>559236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H16" s="7">
         <v>868</v>
@@ -7918,13 +7891,13 @@
         <v>573564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M16" s="7">
         <v>1370</v>
@@ -7933,13 +7906,13 @@
         <v>1132801</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>587</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>589</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7927,13 @@
         <v>6416</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>585</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7969,13 +7942,13 @@
         <v>2948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -7987,10 +7960,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7978,13 @@
         <v>156399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>577</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -8020,13 +7993,13 @@
         <v>170060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
@@ -8035,13 +8008,13 @@
         <v>326459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8070,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8082,13 @@
         <v>478775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>603</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>768</v>
@@ -8124,13 +8097,13 @@
         <v>452413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="M20" s="7">
         <v>1297</v>
@@ -8139,10 +8112,10 @@
         <v>931187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -8160,13 +8133,13 @@
         <v>3953</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>529</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -8175,13 +8148,13 @@
         <v>4750</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>251</v>
+        <v>527</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -8190,13 +8163,13 @@
         <v>8703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>555</v>
+        <v>183</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8184,13 @@
         <v>117429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>611</v>
+        <v>313</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H22" s="7">
         <v>225</v>
@@ -8226,13 +8199,13 @@
         <v>137139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -8241,13 +8214,13 @@
         <v>254568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,7 +8276,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8315,13 +8288,13 @@
         <v>569058</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H24" s="7">
         <v>1277</v>
@@ -8330,13 +8303,13 @@
         <v>678324</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M24" s="7">
         <v>2108</v>
@@ -8345,13 +8318,13 @@
         <v>1247382</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>626</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8366,13 +8339,13 @@
         <v>8958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>628</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -8381,13 +8354,13 @@
         <v>22285</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -8396,13 +8369,13 @@
         <v>31243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>511</v>
+        <v>624</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8417,13 +8390,13 @@
         <v>119739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H26" s="7">
         <v>393</v>
@@ -8432,13 +8405,13 @@
         <v>324163</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>631</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -8447,13 +8420,13 @@
         <v>443902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8494,13 @@
         <v>2697221</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H28" s="7">
         <v>4043</v>
@@ -8536,13 +8509,13 @@
         <v>2776461</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="M28" s="7">
         <v>6723</v>
@@ -8551,13 +8524,13 @@
         <v>5473682</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>648</v>
+        <v>98</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,10 +8545,10 @@
         <v>20619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>78</v>
@@ -8587,13 +8560,13 @@
         <v>31355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -8602,13 +8575,13 @@
         <v>51974</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>651</v>
+        <v>375</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>652</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8623,13 +8596,13 @@
         <v>665449</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="H30" s="7">
         <v>1264</v>
@@ -8638,13 +8611,13 @@
         <v>990409</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
         <v>1934</v>
@@ -8653,13 +8626,13 @@
         <v>1655858</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,7 +8688,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B3B229-8277-4F5B-8762-16E317E15B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D684DCA1-0C6A-4791-BD4C-5DA253656FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{696EB884-0BF5-470E-B8CF-3193AC4BD2EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2D1704D-9759-4E69-8308-5217BE9E0BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="657">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1924 +77,1939 @@
     <t>80,1%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
     <t>75,3%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>21,24%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975FE30-4280-4B05-9AB8-2D2BF70D63E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18E6EFB-FA31-45D3-80C3-78DF8E8A4819}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2823,7 +2838,7 @@
         <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2853,13 @@
         <v>109219</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>171</v>
@@ -2853,13 +2868,13 @@
         <v>183291</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>277</v>
@@ -2868,13 +2883,13 @@
         <v>292509</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2945,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2942,13 +2957,13 @@
         <v>548168</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>527</v>
@@ -2957,13 +2972,13 @@
         <v>552617</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>1054</v>
@@ -2972,13 +2987,13 @@
         <v>1100784</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3008,13 @@
         <v>1003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3008,13 +3023,13 @@
         <v>8270</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3023,7 +3038,7 @@
         <v>9273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>82</v>
@@ -3199,13 +3214,13 @@
         <v>3054</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3214,13 +3229,13 @@
         <v>1947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3229,10 +3244,10 @@
         <v>5001</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>109</v>
@@ -3354,13 +3369,13 @@
         <v>323605</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>312</v>
@@ -3369,13 +3384,13 @@
         <v>317554</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>641</v>
@@ -3384,13 +3399,13 @@
         <v>641159</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3420,13 @@
         <v>1694</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3420,10 +3435,10 @@
         <v>3169</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>132</v>
@@ -3438,10 +3453,10 @@
         <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,10 +3799,10 @@
         <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>5157</v>
@@ -3796,13 +3811,13 @@
         <v>5269561</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,10 +3835,10 @@
         <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -3832,13 +3847,13 @@
         <v>35452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -3847,13 +3862,13 @@
         <v>55062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>133</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,7 +3997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19001D5-9B16-4E31-B5AD-7AFFED89EE9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146D2192-A735-4BA4-A537-BA53CA5DBBD0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4172,13 +4187,13 @@
         <v>992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4187,13 +4202,13 @@
         <v>2816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4223,13 @@
         <v>107669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>125</v>
@@ -4223,13 +4238,13 @@
         <v>128121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>232</v>
@@ -4238,13 +4253,13 @@
         <v>235790</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4327,13 @@
         <v>524021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>376</v>
@@ -4327,13 +4342,13 @@
         <v>396827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -4342,13 +4357,13 @@
         <v>920848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4378,13 @@
         <v>4754</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4378,13 +4393,13 @@
         <v>3861</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4393,13 +4408,13 @@
         <v>8615</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4429,13 @@
         <v>158312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
@@ -4429,13 +4444,13 @@
         <v>208600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -4444,10 +4459,10 @@
         <v>366912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>246</v>
@@ -4506,7 +4521,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4521,10 +4536,10 @@
         <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
         <v>508</v>
@@ -4533,13 +4548,13 @@
         <v>540169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>1043</v>
@@ -4548,13 +4563,13 @@
         <v>1095587</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4584,13 @@
         <v>6335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4590,7 +4605,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4599,10 +4614,10 @@
         <v>8482</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>259</v>
@@ -4793,10 +4808,10 @@
         <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4805,13 +4820,13 @@
         <v>5315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4841,13 @@
         <v>96771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -4847,7 +4862,7 @@
         <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -4856,13 +4871,13 @@
         <v>223410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4945,13 @@
         <v>353839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -4945,13 +4960,13 @@
         <v>343672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>629</v>
@@ -4960,13 +4975,13 @@
         <v>697511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4996,13 @@
         <v>5418</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -4996,13 +5011,13 @@
         <v>7314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -5011,13 +5026,13 @@
         <v>12731</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5047,13 @@
         <v>70173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -5047,13 +5062,13 @@
         <v>96814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -5062,13 +5077,13 @@
         <v>166987</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5151,13 @@
         <v>424818</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>474</v>
@@ -5151,13 +5166,13 @@
         <v>508560</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>860</v>
@@ -5166,13 +5181,13 @@
         <v>933378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5202,13 @@
         <v>14633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5202,13 +5217,13 @@
         <v>35763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -5217,13 +5232,13 @@
         <v>50396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5253,13 @@
         <v>119186</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -5348,7 +5363,7 @@
         <v>342</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>2387</v>
@@ -5357,13 +5372,13 @@
         <v>2575731</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M28" s="7">
         <v>4930</v>
@@ -5375,10 +5390,10 @@
         <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5408,13 @@
         <v>35064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>349</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -5408,13 +5423,13 @@
         <v>53290</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>107</v>
+        <v>348</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M29" s="7">
         <v>84</v>
@@ -5423,13 +5438,13 @@
         <v>88354</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,28 +5459,28 @@
         <v>671493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>859</v>
       </c>
       <c r="I30" s="7">
-        <v>926182</v>
+        <v>926183</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M30" s="7">
         <v>1487</v>
@@ -5474,13 +5489,13 @@
         <v>1597676</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,7 +5522,7 @@
         <v>3295</v>
       </c>
       <c r="I31" s="7">
-        <v>3555203</v>
+        <v>3555204</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -5558,7 +5573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFB1B0F-FAB2-4DC5-AC9E-E0F8EB6AB08D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7E44DC-3684-43DF-ABA3-7117E47AA9D6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5575,7 +5590,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5682,13 +5697,13 @@
         <v>325908</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>308</v>
@@ -5697,13 +5712,13 @@
         <v>301472</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -5712,13 +5727,13 @@
         <v>627380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5748,13 @@
         <v>7386</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5748,10 +5763,10 @@
         <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>374</v>
@@ -5763,10 +5778,10 @@
         <v>11159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>29</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>376</v>
@@ -5817,10 +5832,10 @@
         <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5903,13 @@
         <v>490707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5903,13 +5918,13 @@
         <v>422139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5918,13 +5933,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5954,13 @@
         <v>3329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5954,13 +5969,13 @@
         <v>2797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5969,13 +5984,13 @@
         <v>6125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>395</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>396</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,10 +6008,10 @@
         <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -6005,13 +6020,13 @@
         <v>137723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M10" s="7">
         <v>226</v>
@@ -6020,13 +6035,13 @@
         <v>230971</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6097,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6094,13 +6109,13 @@
         <v>559085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -6109,13 +6124,13 @@
         <v>518326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>1064</v>
@@ -6124,13 +6139,13 @@
         <v>1077411</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6160,13 @@
         <v>5779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6160,13 +6175,13 @@
         <v>1803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6175,13 +6190,13 @@
         <v>7582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6211,13 @@
         <v>101677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -6211,13 +6226,13 @@
         <v>140389</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -6226,13 +6241,13 @@
         <v>242066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>423</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6315,13 @@
         <v>552745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
@@ -6315,13 +6330,13 @@
         <v>532381</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M16" s="7">
         <v>993</v>
@@ -6330,13 +6345,13 @@
         <v>1085126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6366,13 @@
         <v>7342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6366,13 +6381,13 @@
         <v>12520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6381,13 +6396,13 @@
         <v>19862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6417,13 @@
         <v>83928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -6417,13 +6432,13 @@
         <v>104177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M18" s="7">
         <v>170</v>
@@ -6432,13 +6447,13 @@
         <v>188104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6521,13 @@
         <v>402701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -6521,13 +6536,13 @@
         <v>405030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M20" s="7">
         <v>710</v>
@@ -6536,13 +6551,13 @@
         <v>807730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>454</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6572,13 @@
         <v>8090</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>454</v>
+        <v>231</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6572,13 +6587,13 @@
         <v>6706</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6587,13 +6602,13 @@
         <v>14796</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6623,13 @@
         <v>65200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -6623,13 +6638,13 @@
         <v>83294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -6638,13 +6653,13 @@
         <v>148494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6727,13 @@
         <v>487949</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7">
         <v>505</v>
@@ -6727,13 +6742,13 @@
         <v>597255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M24" s="7">
         <v>1024</v>
@@ -6742,13 +6757,13 @@
         <v>1085204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6778,13 @@
         <v>14282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6778,13 +6793,13 @@
         <v>32956</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -6793,13 +6808,13 @@
         <v>47238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6829,13 @@
         <v>88159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -6829,13 +6844,13 @@
         <v>144832</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>491</v>
+        <v>89</v>
       </c>
       <c r="M26" s="7">
         <v>213</v>
@@ -6844,13 +6859,13 @@
         <v>232992</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6933,13 @@
         <v>2819094</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>497</v>
+        <v>249</v>
       </c>
       <c r="H28" s="7">
         <v>2625</v>
@@ -6969,13 +6984,13 @@
         <v>46208</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>29</v>
+        <v>375</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>504</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>504</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -6987,10 +7002,10 @@
         <v>505</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>98</v>
@@ -6999,10 +7014,10 @@
         <v>106764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>507</v>
@@ -7038,10 +7053,10 @@
         <v>511</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>92</v>
+        <v>512</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="M30" s="7">
         <v>1140</v>
@@ -7050,13 +7065,13 @@
         <v>1219306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,7 +7149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D760EBC9-4D9E-4112-B8E3-2AEE29E0453C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE74814-DE6D-42BE-8FB7-24775108FB8D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7151,7 +7166,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7258,13 +7273,13 @@
         <v>311763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H4" s="7">
         <v>153</v>
@@ -7273,13 +7288,13 @@
         <v>260253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M4" s="7">
         <v>298</v>
@@ -7288,13 +7303,13 @@
         <v>572015</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,10 +7327,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7324,13 +7339,13 @@
         <v>1373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>528</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7339,13 +7354,13 @@
         <v>1373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>529</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,13 +7375,13 @@
         <v>65916</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -7375,10 +7390,10 @@
         <v>90630</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>535</v>
@@ -7521,7 +7536,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>548</v>
+        <v>104</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7533,10 +7548,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7545,13 +7560,13 @@
         <v>1292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>183</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,7 +7673,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7706,7 +7721,7 @@
         <v>567</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>568</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,10 +7739,10 @@
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7739,10 +7754,10 @@
         <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7754,10 +7769,10 @@
         <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7787,13 @@
         <v>120288</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>571</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>572</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -7787,13 +7802,13 @@
         <v>138469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>573</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>574</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>571</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -7802,13 +7817,13 @@
         <v>258757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7891,13 @@
         <v>559236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H16" s="7">
         <v>868</v>
@@ -7891,28 +7906,28 @@
         <v>573564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M16" s="7">
         <v>1370</v>
       </c>
       <c r="N16" s="7">
-        <v>1132801</v>
+        <v>1132800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>581</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,7 +7945,7 @@
         <v>584</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>585</v>
@@ -7942,13 +7957,13 @@
         <v>2948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>586</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>584</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -7960,10 +7975,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>587</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +7993,13 @@
         <v>156399</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -8005,16 +8020,16 @@
         <v>423</v>
       </c>
       <c r="N18" s="7">
-        <v>326459</v>
+        <v>326458</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,7 +8071,7 @@
         <v>1804</v>
       </c>
       <c r="N19" s="7">
-        <v>1468623</v>
+        <v>1468622</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8082,13 +8097,13 @@
         <v>478775</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>768</v>
@@ -8115,10 +8130,10 @@
         <v>601</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>602</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>11</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8148,13 @@
         <v>3953</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>529</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -8148,13 +8163,13 @@
         <v>4750</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>304</v>
+        <v>605</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>527</v>
+        <v>211</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>606</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -8163,13 +8178,13 @@
         <v>8703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>528</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>506</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8199,13 @@
         <v>117429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>313</v>
+        <v>608</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H22" s="7">
         <v>225</v>
@@ -8199,13 +8214,13 @@
         <v>137139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -8214,13 +8229,13 @@
         <v>254568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,16 +8300,16 @@
         <v>831</v>
       </c>
       <c r="D24" s="7">
-        <v>569058</v>
+        <v>569057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>1277</v>
@@ -8303,13 +8318,13 @@
         <v>678324</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>2108</v>
@@ -8318,13 +8333,13 @@
         <v>1247382</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8354,13 @@
         <v>8958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>619</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>624</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -8354,13 +8369,13 @@
         <v>22285</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -8369,13 +8384,13 @@
         <v>31243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>624</v>
+        <v>23</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>625</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8390,13 +8405,13 @@
         <v>119739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="H26" s="7">
         <v>393</v>
@@ -8405,13 +8420,13 @@
         <v>324163</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -8420,13 +8435,13 @@
         <v>443902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,7 +8453,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8494,13 +8509,13 @@
         <v>2697221</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>637</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H28" s="7">
         <v>4043</v>
@@ -8509,13 +8524,13 @@
         <v>2776461</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="M28" s="7">
         <v>6723</v>
@@ -8524,13 +8539,13 @@
         <v>5473682</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>98</v>
+        <v>644</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8560,13 @@
         <v>20619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>78</v>
+        <v>647</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -8560,13 +8575,13 @@
         <v>31355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -8575,13 +8590,13 @@
         <v>51974</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8596,13 +8611,13 @@
         <v>665449</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>571</v>
+        <v>649</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H30" s="7">
         <v>1264</v>
@@ -8611,13 +8626,13 @@
         <v>990409</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="M30" s="7">
         <v>1934</v>
@@ -8626,13 +8641,13 @@
         <v>1655858</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D684DCA1-0C6A-4791-BD4C-5DA253656FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{930E82B6-3379-4174-A5A9-6A7047543436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2D1704D-9759-4E69-8308-5217BE9E0BD9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46A1F094-7C9F-494C-8C85-39DD60B814AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="755">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>84,86%</t>
@@ -239,7 +239,7 @@
     <t>24,0%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>85,95%</t>
@@ -320,7 +320,7 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>84,58%</t>
@@ -398,7 +398,7 @@
     <t>19,69%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>79,8%</t>
@@ -473,1543 +473,1837 @@
     <t>21,11%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
 </sst>
 </file>
@@ -2421,8 +2715,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18E6EFB-FA31-45D3-80C3-78DF8E8A4819}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE763194-3A35-44B9-868F-7AF792124550}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3569,10 +3863,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="D24" s="7">
-        <v>384558</v>
+        <v>231304</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>145</v>
@@ -3584,10 +3878,10 @@
         <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="I24" s="7">
-        <v>477063</v>
+        <v>248284</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>148</v>
@@ -3599,10 +3893,10 @@
         <v>150</v>
       </c>
       <c r="M24" s="7">
-        <v>867</v>
+        <v>506</v>
       </c>
       <c r="N24" s="7">
-        <v>861621</v>
+        <v>479588</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>151</v>
@@ -3620,49 +3914,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>7889</v>
+        <v>1659</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6189</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="7">
-        <v>17</v>
-      </c>
-      <c r="I25" s="7">
-        <v>17807</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>9</v>
+      </c>
+      <c r="N25" s="7">
+        <v>7848</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M25" s="7">
-        <v>24</v>
-      </c>
-      <c r="N25" s="7">
-        <v>25696</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,49 +3965,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7">
-        <v>110019</v>
+        <v>59620</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>96</v>
+      </c>
+      <c r="I26" s="7">
+        <v>88461</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="7">
-        <v>178</v>
-      </c>
-      <c r="I26" s="7">
-        <v>181972</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>159</v>
+      </c>
+      <c r="N26" s="7">
+        <v>148081</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M26" s="7">
-        <v>293</v>
-      </c>
-      <c r="N26" s="7">
-        <v>291991</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3737,10 +4031,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3752,10 +4046,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3769,16 +4063,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2664</v>
+        <v>163</v>
       </c>
       <c r="D28" s="7">
-        <v>2715312</v>
+        <v>153254</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>172</v>
@@ -3790,34 +4084,34 @@
         <v>174</v>
       </c>
       <c r="H28" s="7">
-        <v>2493</v>
+        <v>198</v>
       </c>
       <c r="I28" s="7">
-        <v>2554248</v>
+        <v>228779</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
-        <v>5157</v>
+        <v>361</v>
       </c>
       <c r="N28" s="7">
-        <v>5269561</v>
+        <v>382033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,49 +4120,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>19609</v>
+        <v>6230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>35452</v>
+        <v>11618</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N29" s="7">
-        <v>55062</v>
+        <v>17848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,49 +4171,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>530</v>
+        <v>52</v>
       </c>
       <c r="D30" s="7">
-        <v>540737</v>
+        <v>50399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
-        <v>769</v>
+        <v>82</v>
       </c>
       <c r="I30" s="7">
-        <v>788556</v>
+        <v>93511</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
-        <v>1299</v>
+        <v>134</v>
       </c>
       <c r="N30" s="7">
-        <v>1329293</v>
+        <v>143910</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,63 +4222,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2664</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2715313</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2493</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2554248</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5157</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5269560</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7">
+        <v>19609</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="7">
+        <v>34</v>
+      </c>
+      <c r="I33" s="7">
+        <v>35452</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M33" s="7">
+        <v>53</v>
+      </c>
+      <c r="N33" s="7">
+        <v>55062</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>530</v>
+      </c>
+      <c r="D34" s="7">
+        <v>540737</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="7">
+        <v>769</v>
+      </c>
+      <c r="I34" s="7">
+        <v>788556</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1299</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1329293</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3213</v>
       </c>
-      <c r="D31" s="7">
-        <v>3275658</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3275659</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3296</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3378257</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6509</v>
       </c>
-      <c r="N31" s="7">
-        <v>6653916</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>196</v>
+      <c r="N35" s="7">
+        <v>6653915</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3997,8 +4498,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146D2192-A735-4BA4-A537-BA53CA5DBBD0}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CD83BB-1739-4379-9340-7B1040E6B1D4}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4014,7 +4515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4121,13 +4622,13 @@
         <v>343699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>295</v>
@@ -4136,13 +4637,13 @@
         <v>301117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>631</v>
@@ -4151,13 +4652,13 @@
         <v>644816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4673,13 @@
         <v>1824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4187,13 +4688,13 @@
         <v>992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4202,13 +4703,13 @@
         <v>2816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4724,13 @@
         <v>107669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>125</v>
@@ -4238,13 +4739,13 @@
         <v>128121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>232</v>
@@ -4253,13 +4754,13 @@
         <v>235790</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,10 +4831,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>376</v>
@@ -4342,13 +4843,13 @@
         <v>396827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -4357,13 +4858,13 @@
         <v>920848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4879,13 @@
         <v>4754</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4393,13 +4894,13 @@
         <v>3861</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4408,13 +4909,13 @@
         <v>8615</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4930,13 @@
         <v>158312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
@@ -4444,13 +4945,13 @@
         <v>208600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -4459,13 +4960,13 @@
         <v>366912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +5034,13 @@
         <v>555419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H12" s="7">
         <v>508</v>
@@ -4548,13 +5049,13 @@
         <v>540169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M12" s="7">
         <v>1043</v>
@@ -4563,13 +5064,13 @@
         <v>1095587</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +5085,13 @@
         <v>6335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4614,13 +5115,13 @@
         <v>8482</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +5136,13 @@
         <v>119382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -4650,13 +5151,13 @@
         <v>167356</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -4665,13 +5166,13 @@
         <v>286738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +5240,13 @@
         <v>515744</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>426</v>
@@ -4754,13 +5255,13 @@
         <v>485387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>882</v>
@@ -4769,13 +5270,13 @@
         <v>1001131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +5291,13 @@
         <v>2101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4805,13 +5306,13 @@
         <v>3214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4820,13 +5321,13 @@
         <v>5315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,10 +5342,10 @@
         <v>96771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
@@ -4856,13 +5357,13 @@
         <v>126639</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -4871,13 +5372,13 @@
         <v>223410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +5446,13 @@
         <v>353839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -4960,13 +5461,13 @@
         <v>343672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>629</v>
@@ -4975,13 +5476,13 @@
         <v>697511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,10 +5500,10 @@
         <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5011,13 +5512,13 @@
         <v>7314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -5026,13 +5527,13 @@
         <v>12731</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5548,13 @@
         <v>70173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -5062,13 +5563,13 @@
         <v>96814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -5077,13 +5578,13 @@
         <v>166987</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,49 +5646,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>386</v>
+        <v>233</v>
       </c>
       <c r="D24" s="7">
-        <v>424818</v>
+        <v>252290</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
-        <v>474</v>
+        <v>253</v>
       </c>
       <c r="I24" s="7">
-        <v>508560</v>
+        <v>261872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
-        <v>860</v>
+        <v>486</v>
       </c>
       <c r="N24" s="7">
-        <v>933378</v>
+        <v>514161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,49 +5697,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>14633</v>
+        <v>2965</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>35763</v>
+        <v>7535</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>50396</v>
+        <v>10500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,49 +5748,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7">
-        <v>119186</v>
+        <v>53531</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="I26" s="7">
-        <v>198652</v>
+        <v>84589</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="N26" s="7">
-        <v>317839</v>
+        <v>138121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,10 +5799,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>503</v>
+        <v>281</v>
       </c>
       <c r="D27" s="7">
-        <v>558637</v>
+        <v>308786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5313,10 +5814,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5328,10 +5829,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N27" s="7">
-        <v>1301612</v>
+        <v>662782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5345,55 +5846,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2543</v>
+        <v>153</v>
       </c>
       <c r="D28" s="7">
-        <v>2717540</v>
+        <v>172528</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="H28" s="7">
-        <v>2387</v>
+        <v>221</v>
       </c>
       <c r="I28" s="7">
-        <v>2575731</v>
+        <v>246688</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="M28" s="7">
-        <v>4930</v>
+        <v>374</v>
       </c>
       <c r="N28" s="7">
-        <v>5293272</v>
+        <v>419216</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>373</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,49 +5903,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>35064</v>
+        <v>11668</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>52</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="H29" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I29" s="7">
-        <v>53290</v>
+        <v>28228</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="N29" s="7">
-        <v>88354</v>
+        <v>39895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,49 +5954,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>628</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7">
-        <v>671493</v>
+        <v>65655</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7">
-        <v>859</v>
+        <v>103</v>
       </c>
       <c r="I30" s="7">
-        <v>926183</v>
+        <v>114063</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="M30" s="7">
-        <v>1487</v>
+        <v>161</v>
       </c>
       <c r="N30" s="7">
-        <v>1597676</v>
+        <v>179718</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,63 +6005,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2543</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2717540</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2387</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2575731</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4930</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5293271</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>35</v>
+      </c>
+      <c r="D33" s="7">
+        <v>35064</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H33" s="7">
+        <v>49</v>
+      </c>
+      <c r="I33" s="7">
+        <v>53290</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M33" s="7">
+        <v>84</v>
+      </c>
+      <c r="N33" s="7">
+        <v>88354</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>628</v>
+      </c>
+      <c r="D34" s="7">
+        <v>671493</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H34" s="7">
+        <v>859</v>
+      </c>
+      <c r="I34" s="7">
+        <v>926182</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1487</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1597675</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3206</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3424098</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3295</v>
       </c>
-      <c r="I31" s="7">
-        <v>3555204</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3555203</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6501</v>
       </c>
-      <c r="N31" s="7">
-        <v>6979302</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>196</v>
+      <c r="N35" s="7">
+        <v>6979301</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5573,8 +6281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7E44DC-3684-43DF-ABA3-7117E47AA9D6}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACFA165-EDCD-4AC6-ACEF-B2102EB9007C}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5590,7 +6298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5697,13 +6405,13 @@
         <v>325908</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7">
         <v>308</v>
@@ -5712,13 +6420,13 @@
         <v>301472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -5730,10 +6438,10 @@
         <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +6456,13 @@
         <v>7386</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5763,13 +6471,13 @@
         <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5778,13 +6486,13 @@
         <v>11159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +6507,13 @@
         <v>86170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -5814,13 +6522,13 @@
         <v>90509</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="M6" s="7">
         <v>171</v>
@@ -5829,13 +6537,13 @@
         <v>176679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +6611,13 @@
         <v>490707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5918,13 +6626,13 @@
         <v>422139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5933,13 +6641,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +6662,13 @@
         <v>3329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>395</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5969,13 +6677,13 @@
         <v>2797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5984,13 +6692,13 @@
         <v>6125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>131</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,10 +6716,10 @@
         <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -6020,13 +6728,13 @@
         <v>137723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="M10" s="7">
         <v>226</v>
@@ -6035,13 +6743,13 @@
         <v>230971</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6817,13 @@
         <v>559085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -6124,13 +6832,13 @@
         <v>518326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="M12" s="7">
         <v>1064</v>
@@ -6139,13 +6847,13 @@
         <v>1077411</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6868,13 @@
         <v>5779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6181,7 +6889,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6190,13 +6898,13 @@
         <v>7582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6919,13 @@
         <v>101677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -6226,13 +6934,13 @@
         <v>140389</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -6241,13 +6949,13 @@
         <v>242066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +7023,13 @@
         <v>552745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
@@ -6330,13 +7038,13 @@
         <v>532381</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="M16" s="7">
         <v>993</v>
@@ -6345,13 +7053,13 @@
         <v>1085126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +7074,7 @@
         <v>7342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>107</v>
@@ -6381,13 +7089,13 @@
         <v>12520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6399,10 +7107,10 @@
         <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +7125,13 @@
         <v>83928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -6432,13 +7140,13 @@
         <v>104177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="M18" s="7">
         <v>170</v>
@@ -6447,13 +7155,13 @@
         <v>188104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +7229,13 @@
         <v>402701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -6536,13 +7244,13 @@
         <v>405030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="M20" s="7">
         <v>710</v>
@@ -6551,13 +7259,13 @@
         <v>807730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +7280,13 @@
         <v>8090</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>457</v>
+        <v>187</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6587,13 +7295,13 @@
         <v>6706</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6602,13 +7310,13 @@
         <v>14796</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +7331,13 @@
         <v>65200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -6638,13 +7346,13 @@
         <v>83294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -6653,13 +7361,13 @@
         <v>148494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,49 +7429,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>519</v>
+        <v>270</v>
       </c>
       <c r="D24" s="7">
-        <v>487949</v>
+        <v>276431</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>472</v>
+        <v>205</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
-        <v>505</v>
+        <v>278</v>
       </c>
       <c r="I24" s="7">
-        <v>597255</v>
+        <v>296544</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="M24" s="7">
-        <v>1024</v>
+        <v>548</v>
       </c>
       <c r="N24" s="7">
-        <v>1085204</v>
+        <v>572974</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,49 +7480,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6873</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H25" s="7">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7">
+        <v>10364</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="M25" s="7">
         <v>16</v>
       </c>
-      <c r="D25" s="7">
-        <v>14282</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H25" s="7">
-        <v>26</v>
-      </c>
-      <c r="I25" s="7">
-        <v>32956</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="M25" s="7">
-        <v>42</v>
-      </c>
       <c r="N25" s="7">
-        <v>47238</v>
+        <v>17237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,49 +7531,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D26" s="7">
-        <v>88159</v>
+        <v>50089</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>31</v>
       </c>
       <c r="H26" s="7">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="I26" s="7">
-        <v>144832</v>
+        <v>69238</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="M26" s="7">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="N26" s="7">
-        <v>232992</v>
+        <v>119327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,10 +7582,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>626</v>
+        <v>324</v>
       </c>
       <c r="D27" s="7">
-        <v>590390</v>
+        <v>333392</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6889,10 +7597,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>653</v>
+        <v>353</v>
       </c>
       <c r="I27" s="7">
-        <v>775044</v>
+        <v>376146</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6904,10 +7612,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N27" s="7">
-        <v>1365434</v>
+        <v>709538</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6921,55 +7629,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2691</v>
+        <v>249</v>
       </c>
       <c r="D28" s="7">
-        <v>2819094</v>
+        <v>211518</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>249</v>
+        <v>550</v>
       </c>
       <c r="H28" s="7">
-        <v>2625</v>
+        <v>227</v>
       </c>
       <c r="I28" s="7">
-        <v>2776603</v>
+        <v>300712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="M28" s="7">
-        <v>5316</v>
+        <v>476</v>
       </c>
       <c r="N28" s="7">
-        <v>5595699</v>
+        <v>512230</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,49 +7686,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>46208</v>
+        <v>7409</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>375</v>
+        <v>513</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>558</v>
       </c>
       <c r="H29" s="7">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>60556</v>
+        <v>22592</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>560</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N29" s="7">
-        <v>106764</v>
+        <v>30001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>562</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>563</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,49 +7737,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>485</v>
+        <v>44</v>
       </c>
       <c r="D30" s="7">
-        <v>518382</v>
+        <v>38071</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="H30" s="7">
-        <v>655</v>
+        <v>56</v>
       </c>
       <c r="I30" s="7">
-        <v>700924</v>
+        <v>75594</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="M30" s="7">
-        <v>1140</v>
+        <v>100</v>
       </c>
       <c r="N30" s="7">
-        <v>1219306</v>
+        <v>113665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,63 +7788,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>300</v>
+      </c>
+      <c r="I31" s="7">
+        <v>398898</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>602</v>
+      </c>
+      <c r="N31" s="7">
+        <v>655896</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2691</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2819094</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2625</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2776603</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5316</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5595698</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>45</v>
+      </c>
+      <c r="D33" s="7">
+        <v>46208</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="7">
+        <v>53</v>
+      </c>
+      <c r="I33" s="7">
+        <v>60556</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="M33" s="7">
+        <v>98</v>
+      </c>
+      <c r="N33" s="7">
+        <v>106763</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>485</v>
+      </c>
+      <c r="D34" s="7">
+        <v>518382</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H34" s="7">
+        <v>655</v>
+      </c>
+      <c r="I34" s="7">
+        <v>700924</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1140</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1219306</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3221</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3383684</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3333</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3538083</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6554</v>
       </c>
-      <c r="N31" s="7">
-        <v>6921768</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>196</v>
+      <c r="N35" s="7">
+        <v>6921767</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7149,8 +8064,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE74814-DE6D-42BE-8FB7-24775108FB8D}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD11BB-069F-4BB7-AE98-0A223D992355}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7166,7 +8081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7270,46 +8185,46 @@
         <v>145</v>
       </c>
       <c r="D4" s="7">
-        <v>311763</v>
+        <v>324109</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="H4" s="7">
         <v>153</v>
       </c>
       <c r="I4" s="7">
-        <v>260253</v>
+        <v>229583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="M4" s="7">
         <v>298</v>
       </c>
       <c r="N4" s="7">
-        <v>572015</v>
+        <v>553692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,40 +8242,40 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1373</v>
+        <v>1289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>528</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>605</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1373</v>
+        <v>1289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>606</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,46 +8287,46 @@
         <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>65916</v>
+        <v>75878</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>530</v>
+        <v>608</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
       </c>
       <c r="I6" s="7">
-        <v>90630</v>
+        <v>80100</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
       </c>
       <c r="N6" s="7">
-        <v>156546</v>
+        <v>155978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,7 +8338,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7438,7 +8353,7 @@
         <v>206</v>
       </c>
       <c r="I7" s="7">
-        <v>352256</v>
+        <v>310972</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7453,7 +8368,7 @@
         <v>378</v>
       </c>
       <c r="N7" s="7">
-        <v>729935</v>
+        <v>710959</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7476,46 +8391,46 @@
         <v>241</v>
       </c>
       <c r="D8" s="7">
-        <v>341427</v>
+        <v>335277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
       </c>
       <c r="I8" s="7">
-        <v>368629</v>
+        <v>388743</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>542</v>
+        <v>620</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="M8" s="7">
         <v>581</v>
       </c>
       <c r="N8" s="7">
-        <v>710055</v>
+        <v>724020</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,16 +8442,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1292</v>
+        <v>1129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>104</v>
+        <v>626</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7548,25 +8463,25 @@
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>548</v>
+        <v>627</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1292</v>
+        <v>1129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>549</v>
+        <v>628</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>550</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,46 +8493,46 @@
         <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>85678</v>
+        <v>87141</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>553</v>
+        <v>631</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
       </c>
       <c r="I10" s="7">
-        <v>129948</v>
+        <v>122761</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>554</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
       </c>
       <c r="N10" s="7">
-        <v>215626</v>
+        <v>209902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +8544,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7644,7 +8559,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7659,7 +8574,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7682,46 +8597,46 @@
         <v>432</v>
       </c>
       <c r="D12" s="7">
-        <v>436964</v>
+        <v>418994</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>562</v>
+        <v>639</v>
       </c>
       <c r="H12" s="7">
         <v>637</v>
       </c>
       <c r="I12" s="7">
-        <v>443277</v>
+        <v>410327</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="M12" s="7">
         <v>1069</v>
       </c>
       <c r="N12" s="7">
-        <v>880241</v>
+        <v>829322</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,10 +8654,10 @@
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7754,10 +8669,10 @@
         <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7769,10 +8684,10 @@
         <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>549</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,46 +8699,46 @@
         <v>114</v>
       </c>
       <c r="D14" s="7">
-        <v>120288</v>
+        <v>117344</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>650</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>138469</v>
+        <v>130548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>651</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>652</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>571</v>
+        <v>653</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
       </c>
       <c r="N14" s="7">
-        <v>258757</v>
+        <v>247891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>572</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,7 +8750,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7850,7 +8765,7 @@
         <v>844</v>
       </c>
       <c r="I15" s="7">
-        <v>581746</v>
+        <v>540875</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7865,7 +8780,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1138998</v>
+        <v>1077213</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7888,46 +8803,46 @@
         <v>502</v>
       </c>
       <c r="D16" s="7">
-        <v>559236</v>
+        <v>727858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="H16" s="7">
         <v>868</v>
       </c>
       <c r="I16" s="7">
-        <v>573564</v>
+        <v>550182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="M16" s="7">
         <v>1370</v>
       </c>
       <c r="N16" s="7">
-        <v>1132800</v>
+        <v>1278040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,46 +8854,46 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>6416</v>
+        <v>6091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>584</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2948</v>
+        <v>2770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>666</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>9364</v>
+        <v>8862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>27</v>
+        <v>669</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,46 +8905,46 @@
         <v>156</v>
       </c>
       <c r="D18" s="7">
-        <v>156399</v>
+        <v>152084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>588</v>
+        <v>671</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
       </c>
       <c r="I18" s="7">
-        <v>170060</v>
+        <v>159277</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
       </c>
       <c r="N18" s="7">
-        <v>326458</v>
+        <v>311361</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>593</v>
+        <v>676</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>677</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>594</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,7 +8956,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>722051</v>
+        <v>886033</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8056,7 +8971,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>746571</v>
+        <v>712230</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8071,7 +8986,7 @@
         <v>1804</v>
       </c>
       <c r="N19" s="7">
-        <v>1468622</v>
+        <v>1598263</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8094,46 +9009,46 @@
         <v>529</v>
       </c>
       <c r="D20" s="7">
-        <v>478775</v>
+        <v>445961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>595</v>
+        <v>679</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>596</v>
+        <v>680</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="H20" s="7">
         <v>768</v>
       </c>
       <c r="I20" s="7">
-        <v>452413</v>
+        <v>414667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>598</v>
+        <v>682</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="M20" s="7">
         <v>1297</v>
       </c>
       <c r="N20" s="7">
-        <v>931187</v>
+        <v>860627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>601</v>
+        <v>685</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,46 +9060,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3953</v>
+        <v>3658</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>237</v>
+        <v>688</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>604</v>
+        <v>690</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>4750</v>
+        <v>4406</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>605</v>
+        <v>332</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
       </c>
       <c r="N21" s="7">
-        <v>8703</v>
+        <v>8064</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>401</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>528</v>
+        <v>666</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,46 +9111,46 @@
         <v>129</v>
       </c>
       <c r="D22" s="7">
-        <v>117429</v>
+        <v>111615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>607</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>692</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>609</v>
+        <v>693</v>
       </c>
       <c r="H22" s="7">
         <v>225</v>
       </c>
       <c r="I22" s="7">
-        <v>137139</v>
+        <v>126494</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>610</v>
+        <v>694</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>611</v>
+        <v>695</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
       </c>
       <c r="N22" s="7">
-        <v>254568</v>
+        <v>238109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>613</v>
+        <v>697</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>614</v>
+        <v>698</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,7 +9162,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8262,7 +9177,7 @@
         <v>1001</v>
       </c>
       <c r="I23" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8277,7 +9192,7 @@
         <v>1664</v>
       </c>
       <c r="N23" s="7">
-        <v>1194458</v>
+        <v>1106799</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8297,49 +9212,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>831</v>
+        <v>471</v>
       </c>
       <c r="D24" s="7">
-        <v>569057</v>
+        <v>304123</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>411</v>
+        <v>700</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>616</v>
+        <v>701</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>617</v>
+        <v>702</v>
       </c>
       <c r="H24" s="7">
-        <v>1277</v>
+        <v>642</v>
       </c>
       <c r="I24" s="7">
-        <v>678324</v>
+        <v>311257</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>618</v>
+        <v>703</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>619</v>
+        <v>704</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="M24" s="7">
-        <v>2108</v>
+        <v>1113</v>
       </c>
       <c r="N24" s="7">
-        <v>1247382</v>
+        <v>615380</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>621</v>
+        <v>706</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>622</v>
+        <v>707</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>623</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,49 +9263,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>8958</v>
+        <v>3357</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3399</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="7">
+        <v>12</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6756</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="H25" s="7">
-        <v>35</v>
-      </c>
-      <c r="I25" s="7">
-        <v>22285</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="M25" s="7">
-        <v>48</v>
-      </c>
-      <c r="N25" s="7">
-        <v>31243</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,49 +9314,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="D26" s="7">
-        <v>119739</v>
+        <v>60685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="H26" s="7">
-        <v>393</v>
+        <v>177</v>
       </c>
       <c r="I26" s="7">
-        <v>324163</v>
+        <v>293133</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>634</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
       <c r="M26" s="7">
-        <v>577</v>
+        <v>271</v>
       </c>
       <c r="N26" s="7">
-        <v>443902</v>
+        <v>353817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>637</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,10 +9365,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8465,10 +9380,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1024772</v>
+        <v>607789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8480,10 +9395,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2733</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1722527</v>
+        <v>975954</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8497,55 +9412,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2680</v>
+        <v>360</v>
       </c>
       <c r="D28" s="7">
-        <v>2697221</v>
+        <v>224818</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>639</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="H28" s="7">
-        <v>4043</v>
+        <v>635</v>
       </c>
       <c r="I28" s="7">
-        <v>2776461</v>
+        <v>302445</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="M28" s="7">
-        <v>6723</v>
+        <v>995</v>
       </c>
       <c r="N28" s="7">
-        <v>5473682</v>
+        <v>527263</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>646</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8554,49 +9469,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>20619</v>
+        <v>5232</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>258</v>
+        <v>723</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="H29" s="7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I29" s="7">
-        <v>31355</v>
+        <v>16006</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>725</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>515</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>418</v>
+        <v>726</v>
       </c>
       <c r="M29" s="7">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="N29" s="7">
-        <v>51974</v>
+        <v>21237</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>727</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>532</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8605,49 +9520,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>670</v>
+        <v>90</v>
       </c>
       <c r="D30" s="7">
-        <v>665449</v>
+        <v>52710</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>648</v>
+        <v>38</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="H30" s="7">
-        <v>1264</v>
+        <v>216</v>
       </c>
       <c r="I30" s="7">
-        <v>990409</v>
+        <v>106304</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>651</v>
+        <v>435</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="M30" s="7">
-        <v>1934</v>
+        <v>306</v>
       </c>
       <c r="N30" s="7">
-        <v>1655858</v>
+        <v>159014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,63 +9571,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>879</v>
+      </c>
+      <c r="I31" s="7">
+        <v>424755</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707514</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2680</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2781140</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4043</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2607205</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6723</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5388344</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>25</v>
+      </c>
+      <c r="D33" s="7">
+        <v>19467</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="7">
+        <v>49</v>
+      </c>
+      <c r="I33" s="7">
+        <v>27870</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="M33" s="7">
+        <v>74</v>
+      </c>
+      <c r="N33" s="7">
+        <v>47337</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>670</v>
+      </c>
+      <c r="D34" s="7">
+        <v>657457</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1264</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1018616</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1934</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1676074</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3375</v>
       </c>
-      <c r="D31" s="7">
-        <v>3383289</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3458064</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5356</v>
       </c>
-      <c r="I31" s="7">
-        <v>3798225</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3653691</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8731</v>
       </c>
-      <c r="N31" s="7">
-        <v>7181514</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>196</v>
+      <c r="N35" s="7">
+        <v>7111755</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
